--- a/src/P07_af_all/T07_ml_auto_optuna_5052/S02_combine_study.xlsx
+++ b/src/P07_af_all/T07_ml_auto_optuna_5052/S02_combine_study.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,21 +518,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-1_TS-0_3</t>
+          <t>study_ElasticNet_RS-1_TS-0_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -542,57 +542,57 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 104, 'learning_rate': 0.037134765407916645, 'max_depth': 3, 'min_samples_split': 93, 'min_samples_leaf': 18, 'subsample': 0.8254223535537161, 'max_features': 0.8, 'loss': 'huber'}</t>
+          <t>{'alpha': 0.6922090420450561, 'l1_ratio': 0.001736026853867978, 'fit_intercept': False, 'positive': False, 'max_iter': 455, 'tol': 0.09150053668369586, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.2266887810977335</v>
+        <v>-0.1830768129714505</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75374028085875</v>
+        <v>0.7960050247622003</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004522300975605634</v>
+        <v>0.01406874952661171</v>
       </c>
       <c r="L2" t="n">
-        <v>2.030410641562856</v>
+        <v>1.958753581550713</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3941921583403414</v>
+        <v>0.4332896183089158</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2266887810977335</v>
+        <v>0.1830768129714505</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01999146545557747</v>
+        <v>0.03236664676311037</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 104, 'learning_rate': 0.037134765407916645, 'max_depth': 3, 'min_samples_split': 93, 'min_samples_leaf': 18, 'subsample': 0.8254223535537161, 'max_features': 0.8, 'loss': 'huber'}</t>
+          <t>{'alpha': 0.6922090420450561, 'l1_ratio': 0.001736026853867978, 'fit_intercept': False, 'positive': False, 'max_iter': 455, 'tol': 0.09150053668369586, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-2_TS-0_3</t>
+          <t>study_ElasticNet_RS-2_TS-0_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -602,57 +602,57 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 168, 'learning_rate': 0.04602586592038538, 'max_depth': 1, 'min_samples_split': 55, 'min_samples_leaf': 3, 'subsample': 0.8434078895544928, 'max_features': 'log2', 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.12306793894812769, 'l1_ratio': 0.350664953011002, 'fit_intercept': False, 'positive': False, 'max_iter': 811, 'tol': 0.00045797308646371084, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.2405051861518841</v>
+        <v>-0.2078131309250648</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7645705250594924</v>
+        <v>0.7918394224145352</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1416013258546995</v>
+        <v>0.103851761815855</v>
       </c>
       <c r="L3" t="n">
-        <v>1.89713817998754</v>
+        <v>1.994667011177887</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2340214449446328</v>
+        <v>0.3726530309247711</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2405051861518841</v>
+        <v>0.2078131309250648</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06454921479267792</v>
+        <v>0.03313929471887592</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 168, 'learning_rate': 0.04602586592038538, 'max_depth': 1, 'min_samples_split': 55, 'min_samples_leaf': 3, 'subsample': 0.8434078895544928, 'max_features': 'log2', 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.12306793894812769, 'l1_ratio': 0.350664953011002, 'fit_intercept': False, 'positive': False, 'max_iter': 811, 'tol': 0.00045797308646371084, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-3_TS-0_3</t>
+          <t>study_ElasticNet_RS-3_TS-0_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -662,57 +662,57 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 117, 'learning_rate': 0.05083851775479125, 'max_depth': 8, 'min_samples_split': 77, 'min_samples_leaf': 3, 'subsample': 0.8694688811410118, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 0.15941339817516184, 'l1_ratio': 0.34801492683260504, 'fit_intercept': False, 'positive': False, 'max_iter': 9041, 'tol': 0.002325049132893136, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.2642170700428429</v>
+        <v>-0.1944170015640374</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7132722297244872</v>
+        <v>0.7936387949441116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1364091657945573</v>
+        <v>0.1982451485335028</v>
       </c>
       <c r="L4" t="n">
-        <v>1.632947619097327</v>
+        <v>1.519014724527677</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5066872189750067</v>
+        <v>0.4554673048828357</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2642170700428429</v>
+        <v>0.1944170015640374</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05838443636995512</v>
+        <v>0.01404856769753436</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 117, 'learning_rate': 0.05083851775479125, 'max_depth': 8, 'min_samples_split': 77, 'min_samples_leaf': 3, 'subsample': 0.8694688811410118, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 0.15941339817516184, 'l1_ratio': 0.34801492683260504, 'fit_intercept': False, 'positive': False, 'max_iter': 9041, 'tol': 0.002325049132893136, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-4_TS-0_3</t>
+          <t>study_ElasticNet_RS-4_TS-0_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -722,57 +722,57 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 145, 'learning_rate': 0.061742454929179014, 'max_depth': 6, 'min_samples_split': 45, 'min_samples_leaf': 44, 'subsample': 0.6648412834112729, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.09729088497376517, 'l1_ratio': 0.7691471070518442, 'fit_intercept': False, 'positive': False, 'max_iter': 2280, 'tol': 0.0642064727040645, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.2035991283921587</v>
+        <v>-0.2050595619722069</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7944912372862243</v>
+        <v>0.7950447578024962</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08143282788978538</v>
+        <v>0.1005879397748151</v>
       </c>
       <c r="L5" t="n">
-        <v>1.593061822711822</v>
+        <v>1.380452910105</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2216913661350256</v>
+        <v>0.1539662135559344</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2035991283921587</v>
+        <v>0.2050595619722069</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02270455652302791</v>
+        <v>0.03127229343190364</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 145, 'learning_rate': 0.061742454929179014, 'max_depth': 6, 'min_samples_split': 45, 'min_samples_leaf': 44, 'subsample': 0.6648412834112729, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.09729088497376517, 'l1_ratio': 0.7691471070518442, 'fit_intercept': False, 'positive': False, 'max_iter': 2280, 'tol': 0.0642064727040645, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-5_TS-0_3</t>
+          <t>study_ElasticNet_RS-5_TS-0_3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -782,57 +782,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 454, 'learning_rate': 0.019194817087133553, 'max_depth': 5, 'min_samples_split': 5, 'min_samples_leaf': 21, 'subsample': 0.8438742784344975, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 0.5228190998638953, 'l1_ratio': 0.0011534538198903939, 'fit_intercept': False, 'positive': False, 'max_iter': 1134, 'tol': 0.061593769431602954, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.3554511520751769</v>
+        <v>-0.2872551237329713</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J6" t="n">
-        <v>0.644567551342028</v>
+        <v>0.710143103001896</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08728403294757915</v>
+        <v>0.06679064989872163</v>
       </c>
       <c r="L6" t="n">
-        <v>31.25589580164791</v>
+        <v>22.80288120193464</v>
       </c>
       <c r="M6" t="n">
-        <v>33.55194670786084</v>
+        <v>22.20565610345791</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3554511520751769</v>
+        <v>0.2872551237329713</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04301777378566165</v>
+        <v>0.02700708547952188</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 454, 'learning_rate': 0.019194817087133553, 'max_depth': 5, 'min_samples_split': 5, 'min_samples_leaf': 21, 'subsample': 0.8438742784344975, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'alpha': 0.5228190998638953, 'l1_ratio': 0.0011534538198903939, 'fit_intercept': False, 'positive': False, 'max_iter': 1134, 'tol': 0.061593769431602954, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-1_TS-0_3</t>
+          <t>study_GradientBoosting_RS-1_TS-0_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -842,57 +842,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 67, 'max_depth': 38, 'min_samples_split': 46, 'min_samples_leaf': 15, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 199, 'learning_rate': 0.03787035043585921, 'max_depth': 10, 'min_samples_split': 96, 'min_samples_leaf': 21, 'subsample': 0.9885560091182556, 'max_features': 0.2, 'loss': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.2250724886649011</v>
+        <v>-0.2429669793369042</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7557230511639855</v>
+        <v>0.7385120843629998</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01668788262100099</v>
+        <v>0.02680849114495358</v>
       </c>
       <c r="L7" t="n">
-        <v>2.271244078112574</v>
+        <v>1.992562150678999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5225626727777509</v>
+        <v>0.3332341616279692</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2250724886649011</v>
+        <v>0.2429669793369042</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004766040791196154</v>
+        <v>0.01069334101348455</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 67, 'max_depth': 38, 'min_samples_split': 46, 'min_samples_leaf': 15, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 199, 'learning_rate': 0.03787035043585921, 'max_depth': 10, 'min_samples_split': 96, 'min_samples_leaf': 21, 'subsample': 0.9885560091182556, 'max_features': 0.2, 'loss': 'absolute_error'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-2_TS-0_3</t>
+          <t>study_GradientBoosting_RS-2_TS-0_3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -902,57 +902,57 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 57, 'max_depth': 11, 'min_samples_split': 6, 'min_samples_leaf': 10, 'max_features': 'log2', 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 126, 'learning_rate': 0.04127057261518898, 'max_depth': 1, 'min_samples_split': 64, 'min_samples_leaf': 7, 'subsample': 0.674948228141021, 'max_features': 0.2, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.2209587528393149</v>
+        <v>-0.2616875619873664</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7862550466302647</v>
+        <v>0.7418322232067415</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1584881628794998</v>
+        <v>0.1264118343373685</v>
       </c>
       <c r="L8" t="n">
-        <v>1.932799474689241</v>
+        <v>1.742676987352311</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2610916439650728</v>
+        <v>0.2817190863263092</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2209587528393149</v>
+        <v>0.2616875619873664</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07481888084097654</v>
+        <v>0.05170404076908134</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 57, 'max_depth': 11, 'min_samples_split': 6, 'min_samples_leaf': 10, 'max_features': 'log2', 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 126, 'learning_rate': 0.04127057261518898, 'max_depth': 1, 'min_samples_split': 64, 'min_samples_leaf': 7, 'subsample': 0.674948228141021, 'max_features': 0.2, 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-3_TS-0_3</t>
+          <t>study_GradientBoosting_RS-3_TS-0_3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -962,57 +962,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 98, 'max_depth': 10, 'min_samples_split': 35, 'min_samples_leaf': 8, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 180, 'learning_rate': 0.06985341473559958, 'max_depth': 5, 'min_samples_split': 51, 'min_samples_leaf': 15, 'subsample': 0.9310753345739685, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.2318113528503436</v>
+        <v>-0.2798822959592072</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7448556335705324</v>
+        <v>0.7031899303846799</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1419806993304768</v>
+        <v>0.1562024107523703</v>
       </c>
       <c r="L9" t="n">
-        <v>1.74246045159161</v>
+        <v>1.738983682103205</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5775093191892701</v>
+        <v>0.5204222709162487</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2318113528503436</v>
+        <v>0.2798822959592072</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05904727125537181</v>
+        <v>0.04241733003545093</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 98, 'max_depth': 10, 'min_samples_split': 35, 'min_samples_leaf': 8, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 180, 'learning_rate': 0.06985341473559958, 'max_depth': 5, 'min_samples_split': 51, 'min_samples_leaf': 15, 'subsample': 0.9310753345739685, 'max_features': 'log2', 'loss': 'absolute_error'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-4_TS-0_3</t>
+          <t>study_GradientBoosting_RS-4_TS-0_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1022,57 +1022,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'max_depth': 13, 'min_samples_split': 50, 'min_samples_leaf': 7, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 174, 'learning_rate': 0.07032413504374774, 'max_depth': 5, 'min_samples_split': 36, 'min_samples_leaf': 49, 'subsample': 0.6849135512409018, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.2013604329849101</v>
+        <v>-0.2141484488667068</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7972499241114073</v>
+        <v>0.7845063127720914</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08561679655528009</v>
+        <v>0.088504763709703</v>
       </c>
       <c r="L10" t="n">
-        <v>1.464735976218345</v>
+        <v>1.676822837534685</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1610463750512349</v>
+        <v>0.1808521763132813</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2013604329849101</v>
+        <v>0.2141484488667068</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01076047551254301</v>
+        <v>0.03456635309867938</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'max_depth': 13, 'min_samples_split': 50, 'min_samples_leaf': 7, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 174, 'learning_rate': 0.07032413504374774, 'max_depth': 5, 'min_samples_split': 36, 'min_samples_leaf': 49, 'subsample': 0.6849135512409018, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-5_TS-0_3</t>
+          <t>study_GradientBoosting_RS-5_TS-0_3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-26_20-43</t>
+          <t>2026-01-26_21-29</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1082,36 +1082,1236 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 98, 'max_depth': 26, 'min_samples_split': 39, 'min_samples_leaf': 1, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 308, 'learning_rate': 0.011067311030802392, 'max_depth': 3, 'min_samples_split': 5, 'min_samples_leaf': 12, 'subsample': 0.8903178442290379, 'max_features': 0.5, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.3599869910462601</v>
+        <v>-0.3628695995096842</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6384509578174929</v>
+        <v>0.6367808876412774</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0682756340823661</v>
+        <v>0.08021989216066072</v>
       </c>
       <c r="L11" t="n">
-        <v>36.46743209003517</v>
+        <v>41.58886756570271</v>
       </c>
       <c r="M11" t="n">
-        <v>36.97741186191664</v>
+        <v>48.87720996481099</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3599869910462601</v>
+        <v>0.3628695995096842</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02729290152870407</v>
+        <v>0.03366564843347988</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 98, 'max_depth': 26, 'min_samples_split': 39, 'min_samples_leaf': 1, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 308, 'learning_rate': 0.011067311030802392, 'max_depth': 3, 'min_samples_split': 5, 'min_samples_leaf': 12, 'subsample': 0.8903178442290379, 'max_features': 0.5, 'loss': 'huber'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 45, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 49, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.1393904507388758</v>
+      </c>
+      <c r="I12" t="n">
+        <v>200</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8386781655866956</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.03834461369534518</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.774981860557521</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2956372677168265</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1393904507388758</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.04847697123420692</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 45, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 49, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 34, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 34, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.1824371460856256</v>
+      </c>
+      <c r="I13" t="n">
+        <v>200</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8245782207076066</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1609307228485053</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.92674411191525</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3957032294969783</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1824371460856256</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.06951248306121896</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 34, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 34, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 35, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 11, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.1950494596894246</v>
+      </c>
+      <c r="I14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7927633707084851</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1962451037043588</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.532646833077323</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3184375874192195</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1950494596894246</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01639954071664976</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 35, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 11, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 35, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 43, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.1832545521636268</v>
+      </c>
+      <c r="I15" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8136426721283994</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.07134972588682405</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.503367429950552</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.2241322522603836</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1832545521636268</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01288206992735428</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 35, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 43, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 37, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 32, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.2737877047983056</v>
+      </c>
+      <c r="I16" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7227082529318803</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.05666701264876434</v>
+      </c>
+      <c r="L16" t="n">
+        <v>33.91052658224586</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32.39894220024242</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2737877047983056</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0214019378129561</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 37, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 32, 'p': 2, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 66, 'max_depth': 3, 'min_samples_split': 43, 'min_samples_leaf': 12, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.2556585187155992</v>
+      </c>
+      <c r="I17" t="n">
+        <v>300</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7256677009914783</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00788041641999223</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.06358743979058</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4495551220518623</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2556585187155992</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01282952833621648</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 66, 'max_depth': 3, 'min_samples_split': 43, 'min_samples_leaf': 12, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 51, 'max_depth': 16, 'min_samples_split': 24, 'min_samples_leaf': 18, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.2309297813569639</v>
+      </c>
+      <c r="I18" t="n">
+        <v>300</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7746463452337836</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1444038334817432</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.861863953372624</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4394884708450109</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2309297813569639</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.06138164758653793</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 51, 'max_depth': 16, 'min_samples_split': 24, 'min_samples_leaf': 18, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 75, 'max_depth': 8, 'min_samples_split': 3, 'min_samples_leaf': 9, 'max_features': 'log2', 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.2524370074304353</v>
+      </c>
+      <c r="I19" t="n">
+        <v>300</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7279479217755745</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.149080408586362</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.674539022806527</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4889120378309275</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2524370074304353</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0454298873573702</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 75, 'max_depth': 8, 'min_samples_split': 3, 'min_samples_leaf': 9, 'max_features': 'log2', 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 65, 'max_depth': 11, 'min_samples_split': 47, 'min_samples_leaf': 7, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.2060000044307242</v>
+      </c>
+      <c r="I20" t="n">
+        <v>300</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7920013945848948</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.07836126663882671</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.491291800674291</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.138220263481765</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2060000044307242</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.005144559529765268</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 65, 'max_depth': 11, 'min_samples_split': 47, 'min_samples_leaf': 7, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 93, 'max_depth': 21, 'min_samples_split': 42, 'min_samples_leaf': 1, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3656678596058744</v>
+      </c>
+      <c r="I21" t="n">
+        <v>300</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6345364833722268</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08459127638576824</v>
+      </c>
+      <c r="L21" t="n">
+        <v>37.50176214251812</v>
+      </c>
+      <c r="M21" t="n">
+        <v>40.05566347140164</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3656678596058744</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03430067414976987</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 93, 'max_depth': 21, 'min_samples_split': 42, 'min_samples_leaf': 1, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.005943953977422756, 'epsilon': 0.2587876527462492, 'gamma_choice': 'scale', 'coef0': 0.9414766544045896, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1558661023107611</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8222619505935532</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0218791946081982</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.928790772320376</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4245600891449253</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.1558661023107611</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.04234661155439833</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.005943953977422756, 'gamma': 'scale', 'epsilon': 0.2587876527462492, 'coef0': 0.9414766544045896, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 2.317733591462148, 'epsilon': 4.632475174450459e-06, 'gamma_choice': 'float', 'gamma': 0.003009853798526921, 'coef0': -0.5884264566056674, 'shrinking': True}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.2264039666741306</v>
+      </c>
+      <c r="I23" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.7735249195159791</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1035894922313578</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.082811710049153</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6802370400862686</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2264039666741306</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0335925093361945</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 2.317733591462148, 'gamma': 0.003009853798526921, 'epsilon': 4.632475174450459e-06, 'coef0': -0.5884264566056674, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 0.7956970577138555, 'epsilon': 0.2060637477822404, 'gamma_choice': 'auto', 'coef0': -0.9390608218621219, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2426467462308354</v>
+      </c>
+      <c r="I24" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.7407072282188188</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1646409994481863</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.647415935785392</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5110301831652401</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2426467462308354</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.03363745191483571</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 0.7956970577138555, 'gamma': 'auto', 'epsilon': 0.2060637477822404, 'coef0': -0.9390608218621219, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 0.3151279050265022, 'epsilon': 0.2611422021276048, 'gamma_choice': 'scale', 'coef0': 0.9472764319682565, 'shrinking': True}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1923426677201867</v>
+      </c>
+      <c r="I25" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8053857225632471</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.07738849191368796</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.377802221162008</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1226798569519228</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.1923426677201867</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.009722240521344539</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'kernel': 'rbf', 'C': 0.3151279050265022, 'gamma': 'scale', 'epsilon': 0.2611422021276048, 'coef0': 0.9472764319682565, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.013229522046579395, 'epsilon': 0.33907657679652753, 'gamma_choice': 'float', 'gamma': 1.3799183137585551, 'coef0': -0.899779663111801, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.2942951155357796</v>
+      </c>
+      <c r="I26" t="n">
+        <v>200</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7022717294122236</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.06466793318564906</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15.39790663023024</v>
+      </c>
+      <c r="M26" t="n">
+        <v>14.58013946502744</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2942951155357796</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0411794602404426</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.013229522046579395, 'gamma': 1.3799183137585551, 'epsilon': 0.33907657679652753, 'coef0': -0.899779663111801, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 187, 'max_depth': 1, 'learning_rate': 0.05011504094440259, 'subsample': 0.966359513015157, 'colsample_bytree': 0.3617922095721704, 'colsample_bylevel': 0.997722560103848, 'gamma': 1.1034131966855667, 'min_child_weight': 0.019755087817311303, 'reg_alpha': 0.13621570158548224, 'reg_lambda': 2.4457019542977556e-06, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.2317775621477064</v>
+      </c>
+      <c r="I27" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7484966289083889</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.009562830167134844</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.949635963883137</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.2784381532109073</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2317775621477064</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.03021147714991986</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 187, 'max_depth': 1, 'learning_rate': 0.05011504094440259, 'subsample': 0.966359513015157, 'colsample_bytree': 0.3617922095721704, 'colsample_bylevel': 0.997722560103848, 'gamma': 1.1034131966855667, 'min_child_weight': 0.019755087817311303, 'reg_alpha': 0.13621570158548224, 'reg_lambda': 2.4457019542977556e-06, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 179, 'max_depth': 10, 'learning_rate': 0.12339164657370986, 'subsample': 0.4903128568018998, 'colsample_bytree': 0.7877200710940951, 'colsample_bylevel': 0.5793765394720798, 'gamma': 6.193372547787934, 'min_child_weight': 0.0037331239448127654, 'reg_alpha': 1.0860132299297737e-08, 'reg_lambda': 4.080642908420387e-07, 'booster': 'dart', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.233766100114579</v>
+      </c>
+      <c r="I28" t="n">
+        <v>200</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.7705187727106543</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1405813113070929</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.232276198628251</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.7301370126034878</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.233766100114579</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.06961149489017596</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 179, 'max_depth': 10, 'learning_rate': 0.12339164657370986, 'subsample': 0.4903128568018998, 'colsample_bytree': 0.7877200710940951, 'colsample_bylevel': 0.5793765394720798, 'gamma': 6.193372547787934, 'min_child_weight': 0.0037331239448127654, 'reg_alpha': 1.0860132299297737e-08, 'reg_lambda': 4.080642908420387e-07, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 91, 'max_depth': 2, 'learning_rate': 0.04175933208962854, 'subsample': 0.4052520896556462, 'colsample_bytree': 0.39191693291789725, 'colsample_bylevel': 0.35652378304896354, 'gamma': 0.8554625041448638, 'min_child_weight': 0.024438777829450628, 'reg_alpha': 0.7121037411007994, 'reg_lambda': 0.02062365519997917, 'booster': 'dart', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.2575000518757131</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.7266651421153916</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1615159563551546</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.548776850746694</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4315148706170492</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2575000518757131</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.04455409852458745</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 91, 'max_depth': 2, 'learning_rate': 0.04175933208962854, 'subsample': 0.4052520896556462, 'colsample_bytree': 0.39191693291789725, 'colsample_bylevel': 0.35652378304896354, 'gamma': 0.8554625041448638, 'min_child_weight': 0.024438777829450628, 'reg_alpha': 0.7121037411007994, 'reg_lambda': 0.02062365519997917, 'booster': 'dart', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 122, 'max_depth': 10, 'learning_rate': 0.017771323562402592, 'subsample': 0.43182249246410465, 'colsample_bytree': 0.8999120463742117, 'colsample_bylevel': 0.35740098984306506, 'gamma': 1.544979907397315, 'min_child_weight': 7.1902287801671925, 'reg_alpha': 1.2628660324213403e-06, 'reg_lambda': 1.5552399192935333e-05, 'booster': 'gbtree', 'tree_method': 'auto'}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.2054818068848423</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7898847824934817</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.05361122815885195</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.374520979145016</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.09794060999972029</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2054818068848423</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02779030415745197</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 122, 'max_depth': 10, 'learning_rate': 0.017771323562402592, 'subsample': 0.43182249246410465, 'colsample_bytree': 0.8999120463742117, 'colsample_bylevel': 0.35740098984306506, 'gamma': 1.544979907397315, 'min_child_weight': 7.1902287801671925, 'reg_alpha': 1.2628660324213403e-06, 'reg_lambda': 1.5552399192935333e-05, 'booster': 'gbtree', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-29</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 293, 'max_depth': 7, 'learning_rate': 0.04835965431947927, 'subsample': 0.8680565264006427, 'colsample_bytree': 0.8490782557693608, 'colsample_bylevel': 0.40737778426120264, 'gamma': 1.044109796211367, 'min_child_weight': 0.16682094875166997, 'reg_alpha': 3.2641466243320165e-06, 'reg_lambda': 2.0745513508804025e-08, 'booster': 'dart', 'tree_method': 'auto'}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.3732839091685407</v>
+      </c>
+      <c r="I31" t="n">
+        <v>200</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.6241548269126366</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.06173897843919016</v>
+      </c>
+      <c r="L31" t="n">
+        <v>45.35564339519258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>50.86975293494341</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3732839091685407</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.03602519290720183</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 293, 'max_depth': 7, 'learning_rate': 0.04835965431947927, 'subsample': 0.8680565264006427, 'colsample_bytree': 0.8490782557693608, 'colsample_bylevel': 0.40737778426120264, 'gamma': 1.044109796211367, 'min_child_weight': 0.16682094875166997, 'reg_alpha': 3.2641466243320165e-06, 'reg_lambda': 2.0745513508804025e-08, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
